--- a/artfynd/A 5571-2019.xlsx
+++ b/artfynd/A 5571-2019.xlsx
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>506362.1252516787</v>
+        <v>506362</v>
       </c>
       <c r="R2" t="n">
-        <v>6365525.909079174</v>
+        <v>6365526</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>

--- a/artfynd/A 5571-2019.xlsx
+++ b/artfynd/A 5571-2019.xlsx
@@ -683,7 +683,7 @@
         <v>112009972</v>
       </c>
       <c r="B2" t="n">
-        <v>56414</v>
+        <v>56446</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
